--- a/src/main/resources/input-excel-file/test-data/CLOSED_CYCLE.xlsx
+++ b/src/main/resources/input-excel-file/test-data/CLOSED_CYCLE.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\test-data-framework\src\main\resources\input-excel-file\oracle-rating-owner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code ETL frame work\data-etl-reconcilation\src\main\resources\input-excel-file\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F6BA810-F3F3-4068-85C2-D2178834B7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873E87F1-19D9-4AFD-B398-48226BE5166A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLOSED_CYCLE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CLOSED_CYCLE!$A$1:$E$19</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>CYCLE_ID</t>
   </si>
@@ -34,112 +50,184 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>BOO</t>
-  </si>
-  <si>
-    <t>CLOSE_TIME_CODE</t>
-  </si>
-  <si>
     <t>QAT282</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_9599</t>
-  </si>
-  <si>
     <t>QAT731</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_6774</t>
-  </si>
-  <si>
     <t>QAT742</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_6025</t>
-  </si>
-  <si>
     <t>QAT546</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_9382</t>
-  </si>
-  <si>
     <t>QAT687</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_6338</t>
-  </si>
-  <si>
     <t>QAT368</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_3963</t>
-  </si>
-  <si>
     <t>QAT452</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_2701</t>
-  </si>
-  <si>
     <t>QAT127</t>
   </si>
   <si>
     <t>QAT919</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_8576</t>
-  </si>
-  <si>
     <t>QAT371</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_1004</t>
-  </si>
-  <si>
     <t>QAT539</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_1014</t>
-  </si>
-  <si>
     <t>QAT207</t>
   </si>
   <si>
     <t>QAT178</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_3551</t>
-  </si>
-  <si>
     <t>QAT594</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_8035</t>
-  </si>
-  <si>
     <t>QAT147</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_1247</t>
-  </si>
-  <si>
     <t>QAT774</t>
   </si>
   <si>
-    <t>TRAM THU PHÍ_5126</t>
-  </si>
-  <si>
-    <t>QAT495</t>
-  </si>
-  <si>
-    <t>TRAM THU PHÍ_4106</t>
+    <t>TUYEN DUONG_9599</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_6774</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_6025</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_9382</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_6338</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_3963</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_2701</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_8576</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_1004</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_1014</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_3551</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_8035</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_1247</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_5126</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(9599, 'QAT282', 'TUYEN DUONG_9599',1);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(6774, 'QAT731', 'TUYEN DUONG_6774',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(6025, 'QAT742', 'TUYEN DUONG_6025',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(9382, 'QAT546', 'TUYEN DUONG_9382',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(6338, 'QAT687', 'TUYEN DUONG_6338',null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(3963, 'QAT368', 'TUYEN DUONG_3963',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(2701, 'QAT452', 'TUYEN DUONG_2701',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(8576, 'QAT919', 'TUYEN DUONG_8576',null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(1004, 'QAT371', 'TUYEN DUONG_1004',1);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(1014, 'QAT539', 'TUYEN DUONG_1014',1);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(3551, 'QAT178', 'TUYEN DUONG_3551',1);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(8035, 'QAT594', 'TUYEN DUONG_8035',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(1247, 'QAT147', 'TUYEN DUONG_1247',1);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(5126, 'QAT774', 'TUYEN DUONG_5126',1);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(3439, 'QAT127', null,0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(2275, 'QAT207', null,1);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(4106, null, null,null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO RATING_OWNER.CLOSED_CYCLE (CYCLE_ID, CYCLE_CODE, CYCLE_NAME, STATUS) VALUES(4107, null, null,1);</t>
+  </si>
+  <si>
+    <t>QAT4107</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_4107</t>
+  </si>
+  <si>
+    <t>QAT1014</t>
+  </si>
+  <si>
+    <t>TUYEN DUONG_1111</t>
+  </si>
+  <si>
+    <t>UPDATE RATING_OWNER.CLOSED_CYCLE SET CYCLE_CODE='QAT4107', CYCLE_NAME='TUYEN DUONG_4107', STATUS='1' WHERE CYCLE_ID=4107;</t>
+  </si>
+  <si>
+    <t>UPDATE RATING_OWNER.CLOSED_CYCLE SET CYCLE_CODE='QAT731', CYCLE_NAME='TUYEN DUONG_6774', STATUS='1' WHERE CYCLE_ID=6774;</t>
+  </si>
+  <si>
+    <t>UPDATE RATING_OWNER.CLOSED_CYCLE SET CYCLE_CODE='QAT371', CYCLE_NAME='TUYEN DUONG_1004', STATUS='0' WHERE CYCLE_ID=1004;</t>
+  </si>
+  <si>
+    <t>UPDATE RATING_OWNER.CLOSED_CYCLE SET CYCLE_CODE='QAT1014', CYCLE_NAME='TUYEN DUONG_1111', STATUS='1' WHERE CYCLE_ID=1014;</t>
+  </si>
+  <si>
+    <t>UPDATE RATING_OWNER.CLOSED_CYCLE SET CYCLE_CODE=null, CYCLE_NAME=null, STATUS='1' WHERE CYCLE_ID=9599;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -973,17 +1061,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,246 +1090,234 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9599</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>6774</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6025</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9382</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6338</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3963</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2701</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3439</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8576</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1004</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1014</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2275</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3551</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8035</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1243,74 +1325,235 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1247</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5126</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4106</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>751</v>
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>4107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>9599</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>4107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>6774</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1004</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1014</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1247</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="str">
+        <f>"DELETE FROM RATING_OWNER.CLOSED_CYCLE WHERE CYCLE_ID="&amp;A33&amp;";"</f>
+        <v>DELETE FROM RATING_OWNER.CLOSED_CYCLE WHERE CYCLE_ID=1247;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>5126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="str">
+        <f>"DELETE FROM RATING_OWNER.CLOSED_CYCLE WHERE CYCLE_ID="&amp;A34&amp;";"</f>
+        <v>DELETE FROM RATING_OWNER.CLOSED_CYCLE WHERE CYCLE_ID=5126;</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E19" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>